--- a/report_first_deposit.xlsx
+++ b/report_first_deposit.xlsx
@@ -15,45 +15,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>ลำดับ</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>agent_username</t>
-  </si>
-  <si>
-    <t>promotion_name</t>
-  </si>
-  <si>
-    <t>category_name</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>bonus_included</t>
-  </si>
-  <si>
-    <t>status</t>
+    <t>วันที่</t>
+  </si>
+  <si>
+    <t>เวลา</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>ฝาก</t>
+  </si>
+  <si>
+    <t>โบนัส</t>
+  </si>
+  <si>
+    <t>% โบนัส</t>
+  </si>
+  <si>
+    <t>11/11/2021</t>
+  </si>
+  <si>
+    <t>09:33</t>
   </si>
   <si>
     <t>0980173318</t>
   </si>
   <si>
-    <t>58mo0995887</t>
-  </si>
-  <si>
-    <t>ทดสอบฝากทั้งวัน 1</t>
-  </si>
-  <si>
-    <t>ฝากทั้งวัน</t>
+    <t>12/11/2021</t>
+  </si>
+  <si>
+    <t>09:25</t>
+  </si>
+  <si>
+    <t>0935978639</t>
+  </si>
+  <si>
+    <t>10:11</t>
+  </si>
+  <si>
+    <t>0874771650</t>
+  </si>
+  <si>
+    <t>10:17</t>
+  </si>
+  <si>
+    <t>0644508655</t>
+  </si>
+  <si>
+    <t>10:28</t>
+  </si>
+  <si>
+    <t>0984149699</t>
+  </si>
+  <si>
+    <t>11:55</t>
+  </si>
+  <si>
+    <t>0612092456</t>
+  </si>
+  <si>
+    <t>18/11/2021</t>
+  </si>
+  <si>
+    <t>10:06</t>
+  </si>
+  <si>
+    <t>0822648985</t>
+  </si>
+  <si>
+    <t>22/11/2021</t>
+  </si>
+  <si>
+    <t>15:46</t>
+  </si>
+  <si>
+    <t>0884419011</t>
   </si>
 </sst>
 </file>
@@ -392,7 +434,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -400,7 +442,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,185 +464,189 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="E2">
+        <v>0.01</v>
       </c>
       <c r="F2">
-        <v>9959.47</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>9969.47</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
         <v>12</v>
       </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
       <c r="F3">
-        <v>10069.47</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>10079.47</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>369.47</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>379.47</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>203.47</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>213.47</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>103.47</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>110</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>214.47</v>
-      </c>
-      <c r="G7">
+      <c r="G9">
         <v>10</v>
-      </c>
-      <c r="H7">
-        <v>224.47</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
